--- a/Excel/Assignment 4.xlsx
+++ b/Excel/Assignment 4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup\OneDrive\Desktop\Data analyst\Assignment Data\Assignment\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D51E12-3D09-4B72-A6FF-551824618D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -23,14 +24,14 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxCATEGORY" hidden="1">[1]!CATEGORY[#Data]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxCATEGORY1" hidden="1">[1]!CATEGORY[#Data]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxCATEGORY11" hidden="1">[1]!CATEGORY[#Data]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxREGION" hidden="1">[1]!REGION[#Data]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxREGION1" hidden="1">[1]!REGION[#Data]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxREGION11" hidden="1">[1]!REGION[#Data]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxSALESDATA" hidden="1">[1]!SALESDATA[#Data]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxSALESDATA1" hidden="1">[1]!SALESDATA[#Data]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxSALESDATA11" hidden="1">[1]!SALESDATA[#Data]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,7 +79,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -86,8 +86,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -96,16 +96,16 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!CATEGORY" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!CATEGORY" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="CATEGORY-6d2bf3cd-c21b-4d1d-a4af-cd55fb5300b6">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxCATEGORY"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxCATEGORY1"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="3" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!CATEGORY1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!CATEGORY1" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="CATEGORY-68e5810b-2cbf-447f-a102-c502d2dc0500">
@@ -114,16 +114,16 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="4" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!REGION" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!REGION" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="REGION-20baad16-fba1-4797-b05f-dccfdd072214">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxREGION"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxREGION1"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="5" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!REGION1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!REGION1" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="REGION-d2ce2fb4-1100-49a7-8681-f0830b8f9e90">
@@ -132,16 +132,16 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="6" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!SALESDATA" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!SALESDATA" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="SALESDATA-f90b39a9-a0cb-46a9-a68c-ab50aa96a216" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxSALESDATA"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Cohort3OPS270722.xlsxSALESDATA1"/>
         </x15:connection>
       </ext>
     </extLst>
   </connection>
-  <connection id="7" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!SALESDATA1" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="7" xr16:uid="{00000000-0015-0000-FFFF-FFFF06000000}" name="WorksheetConnection_Cohort3 OPS 270722.xlsx!SALESDATA1" type="102" refreshedVersion="8" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="SALESDATA-60eda5d8-c0bf-41bf-8b80-7ebd66e740ed" autoDelete="1">
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -615,7 +615,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -671,13 +671,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,12 +698,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Blue" xfId="5"/>
+    <cellStyle name="Blue" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Currency 3" xfId="2"/>
+    <cellStyle name="Currency 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Red" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Red" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -861,16 +857,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>40230</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>350763</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53586</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254245</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -893,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4160520" y="807720"/>
-          <a:ext cx="2804403" cy="2834886"/>
+          <a:off x="3941670" y="3649980"/>
+          <a:ext cx="2042815" cy="2065020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,16 +901,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419295</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68007</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>53535</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136587</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -937,7 +933,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11353800" y="1051560"/>
+          <a:off x="6499860" y="3680460"/>
           <a:ext cx="1722315" cy="1325307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -951,7 +947,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Data Management"/>
@@ -1279,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1297,72 +1293,72 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:12">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:12">
@@ -1635,22 +1631,22 @@
         <f>AVERAGE(D13:D20)</f>
         <v>16531.875</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="26">
         <f>AVERAGE(I13:I20)</f>
         <v>17431.25</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="26">
         <f>AVERAGE(J13:J20)</f>
         <v>16086.625</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="26">
         <f>AVERAGE(K13:K20)</f>
         <v>16531.875</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="26">
         <f>AVERAGE(L13:L20)</f>
         <v>15783.875</v>
       </c>
@@ -1723,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1740,25 +1736,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="28.8" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="39"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="35"/>
       <c r="Q2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1824,19 +1820,19 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:17" ht="15.6">
-      <c r="B6" s="32">
+      <c r="B6" s="28">
         <v>39487</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="30">
         <v>10</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="31">
         <v>3850</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -2061,7 +2057,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$Q$2:$Q$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -2070,11 +2066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2090,44 +2086,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="37.799999999999997" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="32">
         <v>44408</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="5">
         <v>10.02</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="5"/>
       <c r="N5" s="5" t="s">
         <v>47</v>
       </c>
@@ -2136,18 +2132,18 @@
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="32">
         <v>44410</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="5">
         <v>9.98</v>
       </c>
-      <c r="E6" s="28">
-        <f>D6-D5</f>
-        <v>-3.9999999999999147E-2</v>
+      <c r="E6" s="5">
+        <f>D5-D6</f>
+        <v>3.9999999999999147E-2</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>49</v>
@@ -2160,18 +2156,18 @@
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="32">
         <v>44411</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="5">
         <v>10.01</v>
       </c>
-      <c r="E7" s="28">
-        <f t="shared" ref="E7:E18" si="0">D7-D6</f>
-        <v>2.9999999999999361E-2</v>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E18" si="0">D6-D7</f>
+        <v>-2.9999999999999361E-2</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>50</v>
@@ -2184,18 +2180,18 @@
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <v>44412</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="5">
         <v>9.9</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10999999999999943</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>54</v>
@@ -2208,18 +2204,18 @@
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <v>44413</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="5">
         <v>9.93</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>2.9999999999999361E-2</v>
+        <v>-2.9999999999999361E-2</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>55</v>
@@ -2232,18 +2228,18 @@
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <v>44414</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="5">
         <v>9.94</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>9.9999999999997868E-3</v>
+        <v>-9.9999999999997868E-3</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>51</v>
@@ -2256,150 +2252,150 @@
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="32">
         <v>44417</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="5">
         <v>10.02</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="21">
+        <v>172382.85000000425</v>
+      </c>
+      <c r="P11" s="21">
+        <v>172382.85000000425</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="32">
+        <v>44418</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9.91</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="21">
+        <v>17463.150000000001</v>
+      </c>
+      <c r="P12" s="21">
+        <v>17463.150000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="32">
+        <v>44419</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9.91</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="21">
+        <v>69550.099999999991</v>
+      </c>
+      <c r="P13" s="21">
+        <v>69550.099999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="32">
+        <v>44420</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.92</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="32">
+        <v>44421</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9.86</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="32">
+        <v>44424</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O11" s="21">
-        <v>172382.85000000425</v>
-      </c>
-      <c r="P11" s="21">
-        <v>172382.85000000425</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="28" t="s">
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="36">
-        <v>44418</v>
-      </c>
-      <c r="D12" s="28">
-        <v>9.91</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="C17" s="32">
+        <v>44425</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>-0.10999999999999943</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="21">
-        <v>17463.150000000001</v>
-      </c>
-      <c r="P12" s="21">
-        <v>17463.150000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="28" t="s">
+        <v>5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="36">
-        <v>44419</v>
-      </c>
-      <c r="D13" s="28">
-        <v>9.91</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="C18" s="32">
+        <v>44426</v>
+      </c>
+      <c r="D18" s="5">
+        <v>9.77</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="21">
-        <v>69550.099999999991</v>
-      </c>
-      <c r="P13" s="21">
-        <v>69550.099999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="36">
-        <v>44420</v>
-      </c>
-      <c r="D14" s="28">
-        <v>9.92</v>
-      </c>
-      <c r="E14" s="28">
-        <f t="shared" si="0"/>
-        <v>9.9999999999997868E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="36">
-        <v>44421</v>
-      </c>
-      <c r="D15" s="28">
-        <v>9.86</v>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" si="0"/>
-        <v>-6.0000000000000497E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="36">
-        <v>44424</v>
-      </c>
-      <c r="D16" s="28">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="E16" s="28">
-        <f t="shared" si="0"/>
-        <v>-8.0000000000000071E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="36">
-        <v>44425</v>
-      </c>
-      <c r="D17" s="28">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="E17" s="28">
-        <f t="shared" si="0"/>
-        <v>-5.9999999999998721E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="36">
-        <v>44426</v>
-      </c>
-      <c r="D18" s="28">
-        <v>9.77</v>
-      </c>
-      <c r="E18" s="28">
-        <f t="shared" si="0"/>
-        <v>4.9999999999998934E-2</v>
+        <v>-4.9999999999998934E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C3:H27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2516,7 +2512,7 @@
       </c>
       <c r="G7" s="17">
         <f ca="1">TODAY()</f>
-        <v>44944</v>
+        <v>44963</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>42</v>
@@ -2617,7 +2613,7 @@
       </c>
       <c r="G12" s="17">
         <f ca="1">TODAY()</f>
-        <v>44944</v>
+        <v>44963</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>43</v>
@@ -2678,7 +2674,7 @@
       </c>
       <c r="G15" s="17">
         <f ca="1">TODAY()</f>
-        <v>44944</v>
+        <v>44963</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>42</v>
@@ -2759,7 +2755,7 @@
       </c>
       <c r="G19" s="17">
         <f ca="1">TODAY()</f>
-        <v>44944</v>
+        <v>44963</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>42</v>
@@ -2900,7 +2896,7 @@
       </c>
       <c r="G26" s="17">
         <f ca="1">TODAY()</f>
-        <v>44944</v>
+        <v>44963</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>43</v>
@@ -2937,7 +2933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,97 +2948,95 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="25" t="s">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="5">
         <v>15000</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="5">
         <v>15000</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="5">
         <v>195500</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="5">
         <v>215809.25</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="5">
         <v>59800</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="5">
         <v>59852.11</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="5">
         <v>356500</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="5">
         <v>345089.25</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="5">
         <v>159000</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="5">
         <v>149087.25</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="5">
         <v>105000</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="5">
         <v>105000</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="5">
         <v>7500</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="5">
         <v>65809.25</v>
       </c>
     </row>
@@ -3057,10 +3051,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3075,251 +3069,247 @@
       <c r="B3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="28">
+      <c r="B6" s="5">
         <v>244</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="5">
         <v>605</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="5">
         <v>596</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="5">
         <v>116</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="5">
         <v>970</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="5">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="28">
+      <c r="B7" s="5">
         <v>589</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="5">
         <v>385</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="5">
         <v>959</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="5">
         <v>778</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="5">
         <v>1067</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="5">
         <v>419</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="28">
+      <c r="B8" s="5">
         <v>565</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="5">
         <v>929</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="5">
         <v>685</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="5">
         <v>606</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="5">
         <v>497</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="5">
         <v>591</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="28">
+      <c r="B9" s="5">
         <v>704</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="5">
         <v>355</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="5">
         <v>1114</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="5">
         <v>686</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="5">
         <v>678</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="5">
         <v>1121</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="28">
+      <c r="B10" s="5">
         <v>1118</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="5">
         <v>1023</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="5">
         <v>733</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="5">
         <v>998</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="5">
         <v>174</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="5">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="28">
+      <c r="B11" s="5">
         <v>1045</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="5">
         <v>1162</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="5">
         <v>819</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="5">
         <v>877</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="5">
         <v>945</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="5">
         <v>1106</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="28">
+      <c r="B12" s="5">
         <v>681</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="5">
         <v>121</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="5">
         <v>652</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="5">
         <v>993</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="5">
         <v>214</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="5">
         <v>448</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="28">
+      <c r="B13" s="5">
         <v>666</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="5">
         <v>627</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="5">
         <v>1188</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="5">
         <v>817</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="5">
         <v>530</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="5">
         <v>344</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="28">
+      <c r="B14" s="5">
         <v>1030</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="5">
         <v>121</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="5">
         <v>384</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="5">
         <v>965</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="5">
         <v>734</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="5">
         <v>1188</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="28">
+      <c r="B15" s="5">
         <v>645</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="5">
         <v>773</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="5">
         <v>115</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="5">
         <v>362</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="5">
         <v>804</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="5">
         <v>730</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="28">
+      <c r="B16" s="5">
         <v>697</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="5">
         <v>300</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="5">
         <v>866</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="5">
         <v>377</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="5">
         <v>1184</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="5">
         <v>789</v>
       </c>
     </row>
@@ -3330,7 +3320,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$B$5:$G$5</formula1>
     </dataValidation>
   </dataValidations>
